--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,8 @@
           <t>spidermink@gmail.com</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0948579427</t>
-        </is>
+      <c r="D3" t="n">
+        <v>948579427</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -520,6 +518,36 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>scrypt:32768:8:1$5GTkvFXGOtv85huX$785be71df4869d048cbeed79b5faf229cf04b6ecbe06a5d67ea350f6d975fd0e0a665267acd33e78956f29c1f3edad84ebbeb3623241d3c3d366b070aa018253</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nguyenminh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nguynmin3@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$cWWwvrIaJzYDQl0M$c5fb914ec2ecb440e623f24fda44dae20d4e15e51d9a883bb9ca9e5f30314cf715cac62eb6e70df7788350c390500c38c8cb017c192d070953c788c9d7a10bb5</t>
         </is>
       </c>
     </row>
